--- a/src/1998/1998.xlsx
+++ b/src/1998/1998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\CENG\Formula Python\src\1998\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0ECB25-FEBA-4E19-9CAD-C0CC8D1190BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94C48F-1B7F-442C-8CDF-8F4B569991ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="115">
   <si>
     <t>DRIVER</t>
   </si>
@@ -444,12 +444,40 @@
   <si>
     <t>Daniil Kovalev</t>
   </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>P F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DNF </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +561,12 @@
     <font>
       <b/>
       <sz val="7"/>
+      <color theme="1"/>
+      <name val="Formula1 Display-Regular"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Formula1 Display-Regular"/>
     </font>
@@ -786,17 +820,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1242,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="10">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="5" t="s">
@@ -1257,8 +1281,12 @@
       <c r="L2" s="4">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1278,38 +1306,42 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10">
+        <v>77</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="10">
-        <v>57</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="4">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1329,38 +1361,42 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11">
-        <v>29</v>
-      </c>
-      <c r="D4" s="13">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="18">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="10">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="6">
+        <v>2</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1395,7 +1431,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="10">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="6">
@@ -1410,8 +1446,12 @@
       <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1446,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="10">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="4">
@@ -1461,8 +1501,12 @@
       <c r="L6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1482,38 +1526,42 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11">
-        <v>31</v>
-      </c>
-      <c r="D7" s="19">
-        <v>17</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="21">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="G7" s="10">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="4">
+      <c r="I7" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
-        <v>4</v>
-      </c>
       <c r="K7" s="4">
-        <v>8</v>
-      </c>
-      <c r="L7" s="4">
         <v>9</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="L7" s="7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1533,38 +1581,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11">
-        <v>23</v>
-      </c>
-      <c r="D8" s="21">
-        <v>11</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>112</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="14">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="G8" s="10">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="4">
+        <v>8</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
       <c r="K8" s="4">
-        <v>9</v>
-      </c>
-      <c r="L8" s="7">
-        <v>3</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="4">
+        <v>6</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1584,38 +1636,42 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11">
-        <v>19</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>103</v>
+        <v>31</v>
+      </c>
+      <c r="D9" s="19">
+        <v>17</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="G9" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
         <v>8</v>
       </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="4">
+        <v>9</v>
+      </c>
+      <c r="M9" s="4">
+        <v>9</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1650,7 +1706,7 @@
         <v>101</v>
       </c>
       <c r="G10" s="10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="4">
@@ -1665,8 +1721,12 @@
       <c r="L10" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10" s="4">
+        <v>8</v>
+      </c>
+      <c r="N10" s="4">
+        <v>8</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1701,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="29" t="s">
@@ -1716,8 +1776,12 @@
       <c r="L11" s="30">
         <v>13</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11" s="30">
+        <v>13</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1737,38 +1801,42 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C12" s="11">
-        <v>28</v>
-      </c>
-      <c r="D12" s="14">
-        <v>33</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="4">
-        <v>10</v>
+      <c r="K12" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="L12" s="4">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
         <v>6</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1788,38 +1856,42 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C13" s="11">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14">
-        <v>23</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="G13" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="4">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4">
+        <v>8</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="M13" s="30">
+        <v>11</v>
+      </c>
+      <c r="N13" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="4">
-        <v>7</v>
-      </c>
-      <c r="L13" s="4">
-        <v>8</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1839,38 +1911,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11">
-        <v>31</v>
-      </c>
-      <c r="D14" s="19">
-        <v>3</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="14">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="4">
-        <v>9</v>
+      <c r="I14" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="4">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4">
+        <v>8</v>
+      </c>
+      <c r="M14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="4">
+      <c r="N14" s="4">
         <v>7</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1905,7 +1981,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="30">
@@ -1920,8 +1996,12 @@
       <c r="L15" s="30">
         <v>14</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="4">
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <v>9</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1971,8 +2051,12 @@
       <c r="L16" s="30">
         <v>15</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="30">
+        <v>14</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2022,8 +2106,12 @@
       <c r="L17" s="30">
         <v>11</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="30">
+        <v>12</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2073,8 +2161,12 @@
       <c r="L18" s="30">
         <v>20</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="30">
+        <v>13</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2124,8 +2216,12 @@
       <c r="L19" s="30">
         <v>18</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2175,8 +2271,12 @@
       <c r="L20" s="30">
         <v>12</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20" s="30">
+        <v>15</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2226,8 +2326,12 @@
       <c r="L21" s="30">
         <v>19</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="30">
+        <v>17</v>
+      </c>
+      <c r="N21" s="30">
+        <v>12</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2277,8 +2381,12 @@
       <c r="L22" s="30">
         <v>17</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M22" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" s="30">
+        <v>11</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2328,8 +2436,12 @@
       <c r="L23" s="30">
         <v>16</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23" s="30">
+        <v>16</v>
+      </c>
+      <c r="N23" s="30">
+        <v>14</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2378,7 +2490,7 @@
     <sortCondition descending="1" ref="G2:G24"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2499,8 +2611,12 @@
       <c r="H2" s="10">
         <v>11</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="32">
+        <v>43</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2514,12 +2630,12 @@
       <c r="U2" s="10"/>
       <c r="V2" s="9"/>
       <c r="W2" s="16">
-        <f>SUM(E2:V2)</f>
-        <v>116</v>
+        <f t="shared" ref="W2:W12" si="0">SUM(E2:V2)</f>
+        <v>159</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="31">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2545,8 +2661,12 @@
       <c r="H3" s="32">
         <v>43</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="33">
+        <v>27</v>
+      </c>
+      <c r="J3" s="32">
+        <v>40</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -2560,12 +2680,12 @@
       <c r="U3" s="10"/>
       <c r="V3" s="9"/>
       <c r="W3" s="16">
-        <f>SUM(E3:V3)</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>147</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="31">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2591,8 +2711,12 @@
       <c r="H4" s="34">
         <v>12</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33">
+        <v>28</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -2606,12 +2730,12 @@
       <c r="U4" s="10"/>
       <c r="V4" s="9"/>
       <c r="W4" s="16">
-        <f>SUM(E4:V4)</f>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="31">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2619,26 +2743,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="34">
-        <v>14</v>
+      <c r="E5" s="10">
+        <v>12</v>
       </c>
       <c r="F5" s="10">
         <v>12</v>
       </c>
-      <c r="G5" s="34">
-        <v>10</v>
+      <c r="G5" s="10">
+        <v>4</v>
       </c>
       <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="10">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10">
+        <v>8</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
@@ -2652,12 +2780,12 @@
       <c r="U5" s="10"/>
       <c r="V5" s="9"/>
       <c r="W5" s="16">
-        <f>SUM(E5:V5)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="31">
-        <v>5.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2665,26 +2793,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="10">
-        <v>4</v>
-      </c>
-      <c r="H6" s="10">
-        <v>8</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="33">
+        <v>15</v>
+      </c>
+      <c r="I6" s="34">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -2698,12 +2830,12 @@
       <c r="U6" s="10"/>
       <c r="V6" s="9"/>
       <c r="W6" s="16">
-        <f>SUM(E6:V6)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="31">
-        <v>6</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2711,26 +2843,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>10</v>
-      </c>
-      <c r="H7" s="33">
-        <v>15</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="H7" s="10">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10">
+        <v>8</v>
+      </c>
+      <c r="J7" s="34">
+        <v>18</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -2744,12 +2880,12 @@
       <c r="U7" s="10"/>
       <c r="V7" s="9"/>
       <c r="W7" s="16">
-        <f>SUM(E7:V7)</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="31">
-        <v>4.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2757,26 +2893,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="E8" s="34">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10">
+        <v>12</v>
+      </c>
+      <c r="G8" s="34">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <v>4</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>7</v>
-      </c>
-      <c r="H8" s="10">
-        <v>12</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>4</v>
+      </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -2790,12 +2930,12 @@
       <c r="U8" s="10"/>
       <c r="V8" s="9"/>
       <c r="W8" s="16">
-        <f>SUM(E8:V8)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="31">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2821,8 +2961,12 @@
       <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -2836,12 +2980,12 @@
       <c r="U9" s="10"/>
       <c r="V9" s="9"/>
       <c r="W9" s="16">
-        <f>SUM(E9:V9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="31">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2867,8 +3011,12 @@
       <c r="H10" s="10">
         <v>0</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -2882,12 +3030,12 @@
       <c r="U10" s="10"/>
       <c r="V10" s="9"/>
       <c r="W10" s="16">
-        <f>SUM(E10:V10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X10" s="9"/>
       <c r="Y10" s="31">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2913,8 +3061,12 @@
       <c r="H11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2928,12 +3080,12 @@
       <c r="U11" s="10"/>
       <c r="V11" s="9"/>
       <c r="W11" s="16">
-        <f>SUM(E11:V11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="31">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2959,8 +3111,12 @@
       <c r="H12" s="10">
         <v>0</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -2974,12 +3130,12 @@
       <c r="U12" s="10"/>
       <c r="V12" s="9"/>
       <c r="W12" s="16">
-        <f>SUM(E12:V12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="31">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3014,10 +3170,10 @@
     <sortCondition descending="1" ref="W2:W13"/>
   </sortState>
   <conditionalFormatting sqref="E1:N1">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:U1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4032,7 +4188,7 @@
     <sortCondition ref="D2:D24"/>
   </sortState>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/1998/1998.xlsx
+++ b/src/1998/1998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\CENG\Formula Python\src\1998\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F9454-5B95-4D30-94D8-E133F7C09224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F6424-0517-4F95-8391-224DAA34625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="124">
   <si>
     <t>DRIVER</t>
   </si>
@@ -124,18 +124,12 @@
     <t>Ken Fassbender</t>
   </si>
   <si>
-    <t>Antonio Iocco</t>
-  </si>
-  <si>
     <t>Honda F1 Team</t>
   </si>
   <si>
     <t>Renault F1 Team</t>
   </si>
   <si>
-    <t>Tony Calandre</t>
-  </si>
-  <si>
     <t>Marcus Svansson</t>
   </si>
   <si>
@@ -157,18 +151,9 @@
     <t>IND</t>
   </si>
   <si>
-    <t>Kumar Karihayan</t>
-  </si>
-  <si>
     <t>Red Bull Sauber-Mercedes</t>
   </si>
   <si>
-    <t>Ernie Cédryck</t>
-  </si>
-  <si>
-    <t>Jamie Lorianne</t>
-  </si>
-  <si>
     <t>ING Jaguar Racing Mercedes</t>
   </si>
   <si>
@@ -259,12 +244,6 @@
     <t>Stuart Reddsey</t>
   </si>
   <si>
-    <t>Neill Jordan</t>
-  </si>
-  <si>
-    <t>Erwin Andrews</t>
-  </si>
-  <si>
     <t>Rudy Wolfe</t>
   </si>
   <si>
@@ -298,9 +277,6 @@
     <t>Chris Puertas</t>
   </si>
   <si>
-    <t>David Frueshl</t>
-  </si>
-  <si>
     <t>Antonio Raineri</t>
   </si>
   <si>
@@ -310,9 +286,6 @@
     <t>Alejandro Macerta</t>
   </si>
   <si>
-    <t>Tyson Douglas</t>
-  </si>
-  <si>
     <t>URU</t>
   </si>
   <si>
@@ -326,9 +299,6 @@
   </si>
   <si>
     <t>Alex Rosnersson</t>
-  </si>
-  <si>
-    <t>Itoku Saiyka</t>
   </si>
   <si>
     <t>No.</t>
@@ -459,9 +429,6 @@
     </r>
   </si>
   <si>
-    <t>Rest</t>
-  </si>
-  <si>
     <r>
       <t>DNF</t>
     </r>
@@ -517,12 +484,104 @@
       <t>P</t>
     </r>
   </si>
+  <si>
+    <t>August Wehner</t>
+  </si>
+  <si>
+    <t>Jérémy Claes</t>
+  </si>
+  <si>
+    <t>Matteo de Vos</t>
+  </si>
+  <si>
+    <t>Itoku Sayika</t>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>PRIZE</t>
+  </si>
+  <si>
+    <t>David Boeck</t>
+  </si>
+  <si>
+    <t>Rich Douglas</t>
+  </si>
+  <si>
+    <t>Vincent White</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Formula1 Display-Regular"/>
+      </rPr>
+      <t>P F</t>
+    </r>
+  </si>
+  <si>
+    <t>Derek West</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Mattia Lori</t>
+  </si>
+  <si>
+    <t>Sarvesh Sharaf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,12 +664,6 @@
       <name val="Formula1 Display-Regular"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF00B050"/>
-      <name val="Formula1 Display-Regular"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Formula1 Display-Regular"/>
@@ -621,8 +674,20 @@
       <color theme="1"/>
       <name val="Formula1 Display-Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FFFF9999"/>
+      <name val="Formula1 Display-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="5"/>
+      <name val="Formula1 Display-Regular"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +802,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -765,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,10 +935,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,6 +993,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF6600"/>
@@ -926,7 +1001,6 @@
       <color rgb="FF00FFFF"/>
       <color rgb="FF006600"/>
       <color rgb="FFCC0000"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
@@ -1223,16 +1297,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -1251,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>14</v>
@@ -1269,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>8</v>
@@ -1278,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>24</v>
@@ -1287,9 +1361,9 @@
         <v>10</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="35" t="s">
         <v>15</v>
       </c>
       <c r="Y1" s="11" t="s">
@@ -1317,50 +1391,60 @@
         <v>20</v>
       </c>
       <c r="G2" s="10">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J2" s="6">
         <v>2</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L2" s="4">
         <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="Q2" s="5">
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="S2" s="6">
         <v>2</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" s="4">
+        <v>8</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1368,65 +1452,75 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11">
-        <v>27</v>
-      </c>
-      <c r="D3" s="17">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="10">
+        <v>243</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="4">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="10">
-        <v>154</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="6">
+      <c r="P3" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="R3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>4</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="6">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>4</v>
-      </c>
-      <c r="R3" s="7">
-        <v>3</v>
-      </c>
-      <c r="S3" s="29">
-        <v>11</v>
-      </c>
-      <c r="T3" s="7">
-        <v>3</v>
-      </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,65 +1528,75 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11">
         <v>24</v>
       </c>
-      <c r="C4" s="11">
-        <v>29</v>
-      </c>
       <c r="D4" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="10">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="29">
+        <v>11</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="4">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O4" s="4">
-        <v>8</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>2</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="S4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="7">
+        <v>3</v>
+      </c>
+      <c r="V4" s="7">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6">
+        <v>2</v>
+      </c>
+      <c r="X4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>3</v>
+      </c>
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1500,65 +1604,75 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11">
+        <v>27</v>
+      </c>
+      <c r="D5" s="17">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10">
+        <v>208</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3</v>
+      </c>
+      <c r="S5" s="29">
+        <v>11</v>
+      </c>
+      <c r="T5" s="7">
+        <v>3</v>
+      </c>
+      <c r="U5" s="4">
+        <v>6</v>
+      </c>
+      <c r="V5" s="6">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" s="4">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="10">
-        <v>140</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="4">
-        <v>4</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29">
-        <v>11</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" s="6">
-        <v>2</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="10">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="7">
@@ -1591,13 +1705,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="35" t="s">
-        <v>104</v>
+      <c r="M6" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="N6" s="6">
         <v>2</v>
@@ -1608,23 +1722,33 @@
       <c r="P6" s="5">
         <v>1</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>104</v>
+      <c r="Q6" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="S6" s="4">
         <v>4</v>
       </c>
-      <c r="T6" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="T6" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="4">
+        <v>4</v>
+      </c>
+      <c r="X6" s="29">
+        <v>13</v>
+      </c>
+      <c r="Y6" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1632,65 +1756,75 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C7" s="11">
-        <v>23</v>
-      </c>
-      <c r="D7" s="21">
+        <v>26</v>
+      </c>
+      <c r="D7" s="20">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="10">
+        <v>113</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="29">
         <v>11</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="10">
-        <v>74</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="L7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="4">
+        <v>8</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="Q7" s="4">
+        <v>7</v>
+      </c>
+      <c r="R7" s="4">
+        <v>6</v>
+      </c>
+      <c r="S7" s="29">
+        <v>13</v>
+      </c>
+      <c r="T7" s="4">
+        <v>5</v>
+      </c>
+      <c r="U7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="4">
+        <v>7</v>
+      </c>
+      <c r="W7" s="4">
+        <v>5</v>
+      </c>
+      <c r="X7" s="4">
         <v>9</v>
       </c>
-      <c r="L7" s="7">
-        <v>3</v>
-      </c>
-      <c r="M7" s="4">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10</v>
-      </c>
-      <c r="O7" s="4">
-        <v>7</v>
-      </c>
-      <c r="P7" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="4">
-        <v>5</v>
-      </c>
-      <c r="S7" s="4">
-        <v>6</v>
-      </c>
-      <c r="T7" s="4">
-        <v>7</v>
-      </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1698,65 +1832,75 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11">
-        <v>26</v>
-      </c>
-      <c r="D8" s="20">
+        <v>23</v>
+      </c>
+      <c r="D8" s="21">
+        <v>11</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="10">
+        <v>110</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="10">
-        <v>70</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4">
+        <v>7</v>
+      </c>
+      <c r="P8" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="4">
+        <v>5</v>
+      </c>
+      <c r="S8" s="4">
         <v>6</v>
       </c>
-      <c r="J8" s="4">
-        <v>6</v>
-      </c>
-      <c r="K8" s="29">
-        <v>11</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="T8" s="4">
+        <v>7</v>
+      </c>
+      <c r="U8" s="4">
+        <v>5</v>
+      </c>
+      <c r="V8" s="4">
+        <v>5</v>
+      </c>
+      <c r="W8" s="4">
+        <v>9</v>
+      </c>
+      <c r="X8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="4">
         <v>8</v>
       </c>
-      <c r="N8" s="4">
-        <v>8</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>7</v>
-      </c>
-      <c r="R8" s="4">
-        <v>6</v>
-      </c>
-      <c r="S8" s="29">
-        <v>13</v>
-      </c>
-      <c r="T8" s="4">
-        <v>5</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1764,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11">
         <v>31</v>
@@ -1773,13 +1917,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" s="10">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="4">
@@ -1797,17 +1941,17 @@
       <c r="M9" s="4">
         <v>9</v>
       </c>
-      <c r="N9" s="35" t="s">
-        <v>104</v>
+      <c r="N9" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="O9" s="7">
         <v>3</v>
       </c>
-      <c r="P9" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>104</v>
+      <c r="P9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="R9" s="4">
         <v>7</v>
@@ -1818,11 +1962,21 @@
       <c r="T9" s="4">
         <v>8</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="U9" s="4">
+        <v>7</v>
+      </c>
+      <c r="V9" s="29">
+        <v>13</v>
+      </c>
+      <c r="W9" s="7">
+        <v>3</v>
+      </c>
+      <c r="X9" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1839,23 +1993,23 @@
         <v>3</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="G10" s="10">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="4">
         <v>9</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>104</v>
+      <c r="J10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="L10" s="4">
         <v>7</v>
@@ -1869,26 +2023,36 @@
       <c r="O10" s="4">
         <v>5</v>
       </c>
-      <c r="P10" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>104</v>
+      <c r="P10" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="R10" s="4">
         <v>9</v>
       </c>
-      <c r="S10" s="35" t="s">
-        <v>104</v>
+      <c r="S10" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="T10" s="4">
         <v>4</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="U10" s="29">
+        <v>11</v>
+      </c>
+      <c r="V10" s="29">
+        <v>11</v>
+      </c>
+      <c r="W10" s="4">
+        <v>7</v>
+      </c>
+      <c r="X10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,20 +2069,20 @@
         <v>23</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="10">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>104</v>
+      <c r="I11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="K11" s="4">
         <v>7</v>
@@ -1926,8 +2090,8 @@
       <c r="L11" s="4">
         <v>8</v>
       </c>
-      <c r="M11" s="35" t="s">
-        <v>104</v>
+      <c r="M11" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="N11" s="4">
         <v>7</v>
@@ -1941,20 +2105,30 @@
       <c r="Q11" s="4">
         <v>6</v>
       </c>
-      <c r="R11" s="35" t="s">
-        <v>104</v>
+      <c r="R11" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="S11" s="4">
         <v>9</v>
       </c>
-      <c r="T11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="T11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="4">
+        <v>6</v>
+      </c>
+      <c r="W11" s="29">
+        <v>11</v>
+      </c>
+      <c r="X11" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>13</v>
+      </c>
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,20 +2145,20 @@
         <v>33</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G12" s="10">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="4">
         <v>8</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>104</v>
+      <c r="J12" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="K12" s="4">
         <v>10</v>
@@ -2005,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="R12" s="29">
         <v>11</v>
@@ -2013,14 +2187,24 @@
       <c r="S12" s="4">
         <v>7</v>
       </c>
-      <c r="T12" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="T12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="4">
+        <v>8</v>
+      </c>
+      <c r="V12" s="4">
+        <v>9</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" s="29">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>7</v>
+      </c>
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2028,65 +2212,75 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11">
+        <v>19</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="10">
+        <v>46</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4">
+        <v>8</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="29">
+        <v>11</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" s="4">
+        <v>6</v>
+      </c>
+      <c r="P13" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>9</v>
+      </c>
+      <c r="R13" s="4">
+        <v>10</v>
+      </c>
+      <c r="S13" s="4">
+        <v>10</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="4">
+        <v>10</v>
+      </c>
+      <c r="V13" s="29">
         <v>12</v>
       </c>
-      <c r="C13" s="11">
-        <v>29</v>
-      </c>
-      <c r="D13" s="18">
-        <v>27</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="10">
-        <v>38</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="4">
-        <v>9</v>
-      </c>
-      <c r="K13" s="4">
-        <v>4</v>
-      </c>
-      <c r="L13" s="29">
+      <c r="W13" s="29">
         <v>13</v>
       </c>
-      <c r="M13" s="29">
-        <v>13</v>
-      </c>
-      <c r="N13" s="4">
-        <v>5</v>
-      </c>
-      <c r="O13" s="29">
-        <v>13</v>
-      </c>
-      <c r="P13" s="29">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>5</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="S13" s="4">
+      <c r="X13" s="4">
         <v>8</v>
       </c>
-      <c r="T13" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="4">
+        <v>6</v>
+      </c>
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,65 +2288,75 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>29</v>
+      </c>
+      <c r="D14" s="18">
+        <v>27</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="10">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="4">
+        <v>9</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
+      <c r="L14" s="29">
+        <v>13</v>
+      </c>
+      <c r="M14" s="29">
+        <v>13</v>
+      </c>
+      <c r="N14" s="4">
+        <v>5</v>
+      </c>
+      <c r="O14" s="29">
+        <v>13</v>
+      </c>
+      <c r="P14" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>5</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="S14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="11">
-        <v>19</v>
-      </c>
-      <c r="D14" s="20">
-        <v>2</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="10">
-        <v>33</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="4">
-        <v>7</v>
-      </c>
-      <c r="J14" s="4">
-        <v>8</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="M14" s="29">
-        <v>11</v>
-      </c>
-      <c r="N14" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="4">
-        <v>6</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="T14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="4">
+        <v>9</v>
+      </c>
+      <c r="V14" s="29">
+        <v>14</v>
+      </c>
+      <c r="W14" s="29">
+        <v>12</v>
+      </c>
+      <c r="X14" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" s="4">
         <v>10</v>
       </c>
-      <c r="Q14" s="4">
-        <v>9</v>
-      </c>
-      <c r="R14" s="4">
-        <v>10</v>
-      </c>
-      <c r="S14" s="4">
-        <v>10</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2160,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11">
         <v>26</v>
@@ -2169,20 +2373,20 @@
         <v>21</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="G15" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="29">
         <v>12</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>104</v>
+      <c r="J15" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="K15" s="4">
         <v>6</v>
@@ -2196,14 +2400,14 @@
       <c r="N15" s="4">
         <v>9</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>104</v>
+      <c r="O15" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="P15" s="4">
         <v>6</v>
       </c>
-      <c r="Q15" s="35" t="s">
-        <v>104</v>
+      <c r="Q15" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="R15" s="4">
         <v>8</v>
@@ -2214,11 +2418,21 @@
       <c r="T15" s="4">
         <v>6</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="U15" s="29">
+        <v>12</v>
+      </c>
+      <c r="V15" s="4">
+        <v>8</v>
+      </c>
+      <c r="W15" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>11</v>
+      </c>
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2226,65 +2440,75 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C16" s="11">
         <v>35</v>
       </c>
       <c r="D16" s="25">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G16" s="10">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="29">
+        <v>12</v>
+      </c>
+      <c r="L16" s="29">
         <v>11</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="4">
-        <v>7</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="29">
+      <c r="M16" s="29">
+        <v>12</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>11</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="29">
         <v>15</v>
       </c>
-      <c r="M16" s="29">
+      <c r="T16" s="4">
+        <v>9</v>
+      </c>
+      <c r="U16" s="29">
+        <v>13</v>
+      </c>
+      <c r="V16" s="4">
+        <v>10</v>
+      </c>
+      <c r="W16" s="4">
+        <v>10</v>
+      </c>
+      <c r="X16" s="29">
         <v>14</v>
       </c>
-      <c r="N16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" s="29">
-        <v>14</v>
-      </c>
-      <c r="P16" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>10</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="S16" s="29">
-        <v>14</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="4">
+        <v>4</v>
+      </c>
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2292,65 +2516,75 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11">
         <v>35</v>
       </c>
       <c r="D17" s="25">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G17" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="4">
+      <c r="I17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="4">
+        <v>7</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="29">
+        <v>15</v>
+      </c>
+      <c r="M17" s="29">
+        <v>14</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="29">
+        <v>14</v>
+      </c>
+      <c r="P17" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="4">
         <v>10</v>
       </c>
-      <c r="J17" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="R17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="29">
+        <v>14</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" s="29">
+        <v>14</v>
+      </c>
+      <c r="V17" s="29">
+        <v>15</v>
+      </c>
+      <c r="W17" s="29">
+        <v>14</v>
+      </c>
+      <c r="X17" s="29">
         <v>12</v>
       </c>
-      <c r="L17" s="29">
-        <v>11</v>
-      </c>
-      <c r="M17" s="29">
+      <c r="Y17" s="29">
         <v>12</v>
       </c>
-      <c r="N17" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>11</v>
-      </c>
-      <c r="R17" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="S17" s="29">
-        <v>15</v>
-      </c>
-      <c r="T17" s="4">
-        <v>9</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2367,10 +2601,10 @@
         <v>25</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -2382,8 +2616,8 @@
       <c r="J18" s="29">
         <v>15</v>
       </c>
-      <c r="K18" s="35" t="s">
-        <v>104</v>
+      <c r="K18" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="L18" s="29">
         <v>16</v>
@@ -2403,8 +2637,8 @@
       <c r="Q18" s="29">
         <v>13</v>
       </c>
-      <c r="R18" s="35" t="s">
-        <v>104</v>
+      <c r="R18" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="S18" s="29">
         <v>18</v>
@@ -2412,11 +2646,21 @@
       <c r="T18" s="4">
         <v>10</v>
       </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="U18" s="29">
+        <v>16</v>
+      </c>
+      <c r="V18" s="29">
+        <v>17</v>
+      </c>
+      <c r="W18" s="29">
+        <v>18</v>
+      </c>
+      <c r="X18" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2433,10 +2677,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -2457,8 +2701,8 @@
       <c r="M19" s="29">
         <v>15</v>
       </c>
-      <c r="N19" s="35" t="s">
-        <v>104</v>
+      <c r="N19" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="O19" s="29">
         <v>16</v>
@@ -2475,14 +2719,24 @@
       <c r="S19" s="29">
         <v>16</v>
       </c>
-      <c r="T19" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="T19" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U19" s="29">
+        <v>15</v>
+      </c>
+      <c r="V19" s="29">
+        <v>16</v>
+      </c>
+      <c r="W19" s="29">
+        <v>17</v>
+      </c>
+      <c r="X19" s="29">
+        <v>15</v>
+      </c>
+      <c r="Y19" s="29">
+        <v>14</v>
+      </c>
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2490,7 +2744,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20" s="11">
         <v>19</v>
@@ -2499,10 +2753,10 @@
         <v>99</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -2514,26 +2768,26 @@
       <c r="J20" s="29">
         <v>12</v>
       </c>
-      <c r="K20" s="35" t="s">
-        <v>104</v>
+      <c r="K20" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="L20" s="29">
         <v>17</v>
       </c>
-      <c r="M20" s="35" t="s">
-        <v>104</v>
+      <c r="M20" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="N20" s="29">
         <v>11</v>
       </c>
-      <c r="O20" s="35" t="s">
-        <v>104</v>
+      <c r="O20" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="P20" s="29">
         <v>17</v>
       </c>
-      <c r="Q20" s="35" t="s">
-        <v>104</v>
+      <c r="Q20" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="R20" s="29">
         <v>13</v>
@@ -2541,14 +2795,24 @@
       <c r="S20" s="29">
         <v>17</v>
       </c>
-      <c r="T20" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="T20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y20" s="29">
+        <v>16</v>
+      </c>
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2565,10 +2829,10 @@
         <v>24</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -2598,23 +2862,33 @@
       <c r="P21" s="29">
         <v>16</v>
       </c>
-      <c r="Q21" s="35" t="s">
-        <v>104</v>
+      <c r="Q21" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="R21" s="29">
         <v>14</v>
       </c>
-      <c r="S21" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="S21" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="29">
+        <v>17</v>
+      </c>
+      <c r="V21" s="29">
+        <v>19</v>
+      </c>
+      <c r="W21" s="29">
+        <v>16</v>
+      </c>
+      <c r="X21" s="29">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>15</v>
+      </c>
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2622,65 +2896,75 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" s="11">
         <v>34</v>
       </c>
       <c r="D22" s="23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="29">
+        <v>17</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="29">
+        <v>18</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>14</v>
+      </c>
+      <c r="R22" s="29">
         <v>15</v>
       </c>
-      <c r="J22" s="29">
-        <v>13</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="29">
-        <v>20</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22" s="29">
-        <v>13</v>
-      </c>
-      <c r="O22" s="29">
+      <c r="S22" s="29">
+        <v>19</v>
+      </c>
+      <c r="T22" s="29">
+        <v>11</v>
+      </c>
+      <c r="U22" s="29">
         <v>18</v>
       </c>
-      <c r="P22" s="29">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" s="29">
-        <v>16</v>
-      </c>
-      <c r="S22" s="29">
-        <v>20</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="V22" s="29">
+        <v>18</v>
+      </c>
+      <c r="W22" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="X22" s="29">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2688,65 +2972,75 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" s="11">
         <v>34</v>
       </c>
       <c r="D23" s="23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="29">
+        <v>15</v>
+      </c>
+      <c r="J23" s="29">
+        <v>13</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="29">
+        <v>20</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="29">
+        <v>13</v>
+      </c>
+      <c r="O23" s="29">
+        <v>18</v>
+      </c>
+      <c r="P23" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="R23" s="29">
+        <v>16</v>
+      </c>
+      <c r="S23" s="29">
+        <v>20</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="V23" s="29">
+        <v>20</v>
+      </c>
+      <c r="W23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="X23" s="29">
         <v>17</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23" s="29">
-        <v>18</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="N23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>14</v>
-      </c>
-      <c r="R23" s="29">
-        <v>15</v>
-      </c>
-      <c r="S23" s="29">
-        <v>19</v>
-      </c>
-      <c r="T23" s="29">
-        <v>11</v>
-      </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -2778,8 +3072,8 @@
       <c r="Z24" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Z24">
-    <sortCondition descending="1" ref="G2:G24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:AA23">
+    <sortCondition ref="AA19:AA23"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
@@ -2791,9 +3085,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69710D40-8BD0-49CF-9BA6-015D32425DEF}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2806,10 +3100,10 @@
     <col min="23" max="23" width="7.77734375" style="1" customWidth="1"/>
     <col min="24" max="24" width="0.5546875" customWidth="1"/>
     <col min="25" max="25" width="7.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>14</v>
@@ -2845,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>8</v>
@@ -2854,7 +3148,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>24</v>
@@ -2863,12 +3157,12 @@
         <v>10</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="35" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="9"/>
@@ -2877,13 +3171,16 @@
       </c>
       <c r="X1" s="9"/>
       <c r="Y1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2930,22 +3227,39 @@
       <c r="P2" s="31">
         <v>33</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="Q2" s="32">
+        <v>26</v>
+      </c>
+      <c r="R2" s="31">
+        <v>43</v>
+      </c>
+      <c r="S2" s="10">
+        <v>12</v>
+      </c>
+      <c r="T2" s="31">
+        <v>43</v>
+      </c>
+      <c r="U2" s="10">
+        <v>2</v>
+      </c>
       <c r="V2" s="9"/>
       <c r="W2" s="16">
-        <f t="shared" ref="W2:W12" si="0">SUM(E2:V2)</f>
-        <v>345</v>
+        <f>SUM(E2:V2)</f>
+        <v>471</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="30">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="30">
+        <f>SUM(Y2:Z2)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2992,22 +3306,39 @@
       <c r="P3" s="32">
         <v>25</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
+      <c r="Q3" s="31">
+        <v>40</v>
+      </c>
+      <c r="R3" s="32">
+        <v>27</v>
+      </c>
+      <c r="S3" s="31">
+        <v>43</v>
+      </c>
+      <c r="T3" s="32">
+        <v>27</v>
+      </c>
+      <c r="U3" s="32">
+        <v>33</v>
+      </c>
       <c r="V3" s="9"/>
       <c r="W3" s="16">
-        <f t="shared" si="0"/>
-        <v>291</v>
+        <f>SUM(E3:V3)</f>
+        <v>461</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="30">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="30">
+        <f>SUM(Y3:Z3)</f>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3054,211 +3385,276 @@
       <c r="P4" s="10">
         <v>0</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="Q4" s="33">
+        <v>14</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="33">
+        <v>12</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
       <c r="V4" s="9"/>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <f>SUM(E4:V4)</f>
+        <v>179</v>
       </c>
       <c r="X4" s="9"/>
-      <c r="Y4" s="34">
-        <v>14.75</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="36">
+        <v>22.25</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="36">
+        <f>SUM(Y4:Z4)</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="10">
-        <v>12</v>
+      <c r="E5" s="33">
+        <v>14</v>
       </c>
       <c r="F5" s="10">
         <v>12</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="33">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <v>4</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="33">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10">
+        <v>11</v>
+      </c>
+      <c r="M5" s="10">
         <v>8</v>
       </c>
-      <c r="I5" s="10">
-        <v>8</v>
-      </c>
-      <c r="J5" s="10">
-        <v>8</v>
-      </c>
-      <c r="K5" s="32">
-        <v>25</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
       <c r="N5" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
         <v>10</v>
       </c>
-      <c r="P5" s="33">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>6</v>
+      </c>
+      <c r="S5" s="10">
+        <v>10</v>
+      </c>
+      <c r="T5" s="10">
+        <v>6</v>
+      </c>
+      <c r="U5" s="31">
+        <v>33</v>
+      </c>
       <c r="V5" s="9"/>
       <c r="W5" s="16">
-        <f t="shared" si="0"/>
-        <v>111</v>
+        <f>SUM(E5:V5)</f>
+        <v>159</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="30">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.5</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="30">
+        <f>SUM(Y5:Z5)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10">
+        <v>8</v>
+      </c>
+      <c r="I6" s="10">
+        <v>8</v>
+      </c>
+      <c r="J6" s="10">
+        <v>8</v>
+      </c>
+      <c r="K6" s="32">
+        <v>25</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>8</v>
+      </c>
+      <c r="O6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
+      <c r="P6" s="33">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>6</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32">
+        <v>21</v>
+      </c>
+      <c r="T6" s="10">
+        <v>9</v>
+      </c>
+      <c r="U6" s="10">
         <v>10</v>
       </c>
-      <c r="H6" s="32">
-        <v>15</v>
-      </c>
-      <c r="I6" s="33">
-        <v>11</v>
-      </c>
-      <c r="J6" s="10">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10">
-        <v>6</v>
-      </c>
-      <c r="L6" s="10">
-        <v>14</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
-        <v>14</v>
-      </c>
-      <c r="O6" s="10">
-        <v>8</v>
-      </c>
-      <c r="P6" s="10">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
       <c r="V6" s="9"/>
       <c r="W6" s="16">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f>SUM(E6:V6)</f>
+        <v>157</v>
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="30">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="30">
+        <f>SUM(Y6:Z6)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="32">
+        <v>15</v>
+      </c>
+      <c r="I7" s="33">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10">
+        <v>6</v>
+      </c>
+      <c r="L7" s="10">
+        <v>14</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>14</v>
+      </c>
+      <c r="O7" s="10">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="33">
+      <c r="P7" s="10">
         <v>14</v>
       </c>
-      <c r="F7" s="10">
-        <v>12</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="Q7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="R7" s="10">
+        <v>14</v>
+      </c>
+      <c r="S7" s="10">
+        <v>2</v>
+      </c>
+      <c r="T7" s="10">
+        <v>10</v>
+      </c>
+      <c r="U7" s="10">
         <v>4</v>
       </c>
-      <c r="J7" s="10">
-        <v>4</v>
-      </c>
-      <c r="K7" s="33">
-        <v>20</v>
-      </c>
-      <c r="L7" s="10">
-        <v>11</v>
-      </c>
-      <c r="M7" s="10">
-        <v>8</v>
-      </c>
-      <c r="N7" s="10">
-        <v>9</v>
-      </c>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
-      <c r="P7" s="10">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
       <c r="V7" s="9"/>
       <c r="W7" s="16">
-        <f t="shared" si="0"/>
-        <v>103</v>
+        <f>SUM(E7:V7)</f>
+        <v>145</v>
       </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="30">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.75</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>24</v>
+      </c>
+      <c r="AA7" s="30">
+        <f>SUM(Y7:Z7)</f>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3266,7 +3662,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10">
@@ -3305,22 +3701,39 @@
       <c r="P8" s="10">
         <v>0</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="Q8" s="10">
+        <v>4</v>
+      </c>
+      <c r="R8" s="10">
+        <v>10</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>6</v>
+      </c>
+      <c r="U8" s="10">
+        <v>6</v>
+      </c>
       <c r="V8" s="9"/>
       <c r="W8" s="16">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>SUM(E8:V8)</f>
+        <v>114</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="30">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.25</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="30">
+        <f>SUM(Y8:Z8)</f>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3328,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10">
@@ -3367,30 +3780,47 @@
       <c r="P9" s="10">
         <v>2</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>12</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="W9" s="16">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>SUM(E9:V9)</f>
+        <v>30</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="30">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="30">
+        <f>SUM(Y9:Z9)</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10">
@@ -3429,25 +3859,39 @@
       <c r="P10" s="10">
         <v>1</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
       <c r="V10" s="9"/>
       <c r="W10" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:V10)</f>
         <v>1</v>
       </c>
       <c r="X10" s="9"/>
-      <c r="Y10" s="34">
-        <v>23.5</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="36">
+        <v>33.5</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="36">
+        <f>SUM(Y10:Z10)</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3455,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10">
@@ -3494,25 +3938,39 @@
       <c r="P11" s="10">
         <v>0</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
       <c r="V11" s="9"/>
       <c r="W11" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(E11:V11)</f>
         <v>0</v>
       </c>
       <c r="X11" s="9"/>
-      <c r="Y11" s="34">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="36">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="30">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="36">
+        <f>SUM(Y11:Z11)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3520,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10">
@@ -3559,25 +4017,39 @@
       <c r="P12" s="10">
         <v>0</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
       <c r="V12" s="9"/>
       <c r="W12" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(E12:V12)</f>
         <v>0</v>
       </c>
       <c r="X12" s="9"/>
-      <c r="Y12" s="34">
-        <v>24</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="36">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="36">
+        <f>SUM(Y12:Z12)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="11"/>
@@ -3603,6 +4075,8 @@
       <c r="W13" s="8"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Z13">
@@ -3621,7 +4095,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE36A288-516B-4432-B391-70192C2889F4}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3633,15 +4107,13 @@
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="0.5546875" customWidth="1"/>
-    <col min="8" max="17" width="4.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="0.5546875" customWidth="1"/>
-    <col min="19" max="25" width="4.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="0.5546875" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="24" width="4.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="0.5546875" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -3649,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -3662,16 +4134,16 @@
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>12</v>
@@ -3680,10 +4152,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
@@ -3691,31 +4163,30 @@
       <c r="Q1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="S1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="9"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3726,17 +4197,21 @@
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="7">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -3745,17 +4220,16 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="9"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3766,17 +4240,21 @@
         <v>23</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3785,17 +4263,16 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3806,17 +4283,21 @@
         <v>26</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -3825,17 +4306,16 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="9"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3846,17 +4326,21 @@
         <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3865,38 +4349,41 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11">
         <v>17</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="4">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4">
+        <v>12</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3905,17 +4392,16 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="9"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3926,17 +4412,21 @@
         <v>21</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -3945,17 +4435,16 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="9"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3966,17 +4455,21 @@
         <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="4">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -3985,38 +4478,41 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11">
         <v>16</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4025,17 +4521,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4046,17 +4541,21 @@
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -4065,17 +4564,16 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="9"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4086,17 +4584,21 @@
         <v>21</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="4">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4">
+        <v>11</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -4105,17 +4607,16 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="9"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4126,17 +4627,21 @@
         <v>19</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="4">
+        <v>13</v>
+      </c>
+      <c r="I12" s="29">
+        <v>16</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -4145,17 +4650,16 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="9"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4166,17 +4670,21 @@
         <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="4">
+        <v>14</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -4185,38 +4693,41 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C14" s="11">
         <v>19</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="29">
+        <v>18</v>
+      </c>
+      <c r="I14" s="29">
+        <v>17</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -4225,38 +4736,41 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="9"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C15" s="11">
         <v>19</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="4">
+        <v>13</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -4265,17 +4779,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4286,17 +4799,21 @@
         <v>18</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -4305,17 +4822,16 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="9"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="9"/>
-    </row>
-    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4326,17 +4842,21 @@
         <v>17</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -4345,17 +4865,16 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="9"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4366,17 +4885,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -4385,17 +4908,16 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="9"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="9"/>
-    </row>
-    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4406,17 +4928,21 @@
         <v>24</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="4">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>9</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -4425,38 +4951,41 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="9"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="4">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -4465,17 +4994,16 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="9"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="9"/>
-    </row>
-    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4486,17 +5014,21 @@
         <v>19</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="4">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -4505,17 +5037,16 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="9"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4526,17 +5057,21 @@
         <v>16</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="29">
+        <v>16</v>
+      </c>
+      <c r="I22" s="29">
+        <v>18</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -4545,17 +5080,16 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="9"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y22" s="9"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4566,17 +5100,21 @@
         <v>16</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="29">
+        <v>17</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4585,17 +5123,16 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="9"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y23" s="9"/>
+    </row>
+    <row r="24" spans="1:25" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4613,15 +5150,14 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="9"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="9"/>
+      <c r="Y24" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q24">

--- a/src/1998/1998.xlsx
+++ b/src/1998/1998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\CENG\Formula Python\src\1998\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE77841D-36F7-45E2-8323-AC3D2FD9D104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EACC77E-CE6D-4E73-95C1-9FA5F1CFA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Honda F1 Team</t>
   </si>
   <si>
-    <t>Renault F1 Team</t>
-  </si>
-  <si>
     <t>Marcus Svansson</t>
   </si>
   <si>
@@ -151,18 +148,9 @@
     <t>IND</t>
   </si>
   <si>
-    <t>Red Bull Sauber-Mercedes</t>
-  </si>
-  <si>
     <t>ING Jaguar Racing Mercedes</t>
   </si>
   <si>
-    <t>James Eadorn</t>
-  </si>
-  <si>
-    <t>George Aldeill</t>
-  </si>
-  <si>
     <t>Minardi-Ferrari F1 Team</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>Guillermo Acosta</t>
   </si>
   <si>
-    <t>Quentin Iazzo</t>
-  </si>
-  <si>
     <t>POR</t>
   </si>
   <si>
@@ -226,9 +211,6 @@
     <t>Draco Grand Prix Engineering</t>
   </si>
   <si>
-    <t>Red Bull F2</t>
-  </si>
-  <si>
     <t>Fortec Motorsport</t>
   </si>
   <si>
@@ -362,6 +344,24 @@
   </si>
   <si>
     <t>Sarvesh Sharaf</t>
+  </si>
+  <si>
+    <t>Red Bull Junior Racing</t>
+  </si>
+  <si>
+    <t>Parmalat Brabham-Renault</t>
+  </si>
+  <si>
+    <t>Alfa Romeo Sauber-Ferrari</t>
+  </si>
+  <si>
+    <t>Matt Rockwell</t>
+  </si>
+  <si>
+    <t>Sam Maloney</t>
+  </si>
+  <si>
+    <t>Aaron Hérnandez</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
       <name val="Formula1 Display-Regular"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,12 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,7 +616,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,22 +631,19 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,19 +652,22 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,11 +719,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990033"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FF990033"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF006600"/>
       <color rgb="FFCC0000"/>
@@ -1029,16 +1023,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -1057,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>14</v>
@@ -1075,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>8</v>
@@ -1084,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>24</v>
@@ -1093,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>15</v>
@@ -1120,27 +1114,27 @@
         <v>28</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="G2" s="29"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1160,27 +1154,27 @@
         <v>28</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="G3" s="29"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1193,34 +1187,34 @@
       <c r="C4" s="11">
         <v>34</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>19</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="30"/>
+      <c r="E4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="29"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1233,34 +1227,34 @@
       <c r="C5" s="11">
         <v>34</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>20</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="30"/>
+      <c r="E5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="29"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1268,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11">
         <v>26</v>
@@ -1277,30 +1271,30 @@
         <v>5</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="G6" s="29"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1317,30 +1311,30 @@
         <v>2</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="30"/>
+        <v>87</v>
+      </c>
+      <c r="G7" s="29"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1353,34 +1347,34 @@
       <c r="C8" s="11">
         <v>35</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>22</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="30"/>
+      <c r="E8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="29"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,34 +1387,34 @@
       <c r="C9" s="11">
         <v>35</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>44</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="30"/>
+      <c r="E9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="29"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1433,34 +1427,34 @@
       <c r="C10" s="11">
         <v>19</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>10</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="30"/>
+      <c r="E10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="29"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,34 +1467,34 @@
       <c r="C11" s="11">
         <v>19</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>24</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="E11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="29"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1513,34 +1507,34 @@
       <c r="C12" s="11">
         <v>26</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="15">
         <v>25</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="30"/>
+      <c r="E12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="29"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1553,34 +1547,34 @@
       <c r="C13" s="11">
         <v>19</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="15">
         <v>99</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="30"/>
+      <c r="E13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="29"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1588,39 +1582,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="11">
         <v>31</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="32">
         <v>17</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,34 +1627,34 @@
       <c r="C15" s="11">
         <v>31</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="32">
         <v>3</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="30"/>
+      <c r="E15" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1682,25 +1676,25 @@
       <c r="F16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,27 +1714,27 @@
         <v>26</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="30"/>
+        <v>100</v>
+      </c>
+      <c r="G17" s="29"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1762,25 +1756,25 @@
       <c r="F18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
       <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1802,25 +1796,25 @@
       <c r="F19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1842,25 +1836,25 @@
       <c r="F20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1882,25 +1876,25 @@
       <c r="F21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1917,30 +1911,30 @@
         <v>11</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="30"/>
+        <v>89</v>
+      </c>
+      <c r="G22" s="29"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1948,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="11">
         <v>26</v>
@@ -1957,30 +1951,30 @@
         <v>21</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="30"/>
+        <v>101</v>
+      </c>
+      <c r="G23" s="29"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>14</v>
@@ -2079,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>8</v>
@@ -2088,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>24</v>
@@ -2097,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>15</v>
@@ -2111,13 +2105,13 @@
       </c>
       <c r="X1" s="9"/>
       <c r="Y1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="AA1" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2128,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
@@ -2150,16 +2144,16 @@
       <c r="U2" s="10"/>
       <c r="V2" s="9"/>
       <c r="W2" s="16">
-        <f>SUM(E2:V2)</f>
+        <f t="shared" ref="W2:W12" si="0">SUM(E2:V2)</f>
         <v>0</v>
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="10"/>
-      <c r="Z2" s="29">
+      <c r="Z2" s="28">
         <v>44</v>
       </c>
-      <c r="AA2" s="29">
-        <f t="shared" ref="AA2:AA12" si="0">SUM(Y2:Z2)</f>
+      <c r="AA2" s="28">
+        <f t="shared" ref="AA2:AA12" si="1">SUM(Y2:Z2)</f>
         <v>44</v>
       </c>
     </row>
@@ -2193,16 +2187,16 @@
       <c r="U3" s="10"/>
       <c r="V3" s="9"/>
       <c r="W3" s="16">
-        <f>SUM(E3:V3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="10"/>
-      <c r="Z3" s="29">
+      <c r="Z3" s="28">
         <v>40</v>
       </c>
-      <c r="AA3" s="29">
-        <f t="shared" si="0"/>
+      <c r="AA3" s="28">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
@@ -2236,16 +2230,16 @@
       <c r="U4" s="10"/>
       <c r="V4" s="9"/>
       <c r="W4" s="16">
-        <f>SUM(E4:V4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="29">
+      <c r="Z4" s="28">
         <v>36</v>
       </c>
-      <c r="AA4" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="31">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -2279,16 +2273,16 @@
       <c r="U5" s="10"/>
       <c r="V5" s="9"/>
       <c r="W5" s="16">
-        <f>SUM(E5:V5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="29">
+      <c r="Z5" s="28">
         <v>32</v>
       </c>
-      <c r="AA5" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA5" s="31">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -2297,10 +2291,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
@@ -2322,16 +2316,16 @@
       <c r="U6" s="10"/>
       <c r="V6" s="9"/>
       <c r="W6" s="16">
-        <f>SUM(E6:V6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="10"/>
-      <c r="Z6" s="29">
+      <c r="Z6" s="28">
         <v>28</v>
       </c>
-      <c r="AA6" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA6" s="31">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -2340,10 +2334,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -2365,16 +2359,16 @@
       <c r="U7" s="10"/>
       <c r="V7" s="9"/>
       <c r="W7" s="16">
-        <f>SUM(E7:V7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="29">
+      <c r="Z7" s="28">
         <v>24</v>
       </c>
-      <c r="AA7" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA7" s="31">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -2385,8 +2379,8 @@
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>41</v>
+      <c r="C8" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -2408,16 +2402,16 @@
       <c r="U8" s="10"/>
       <c r="V8" s="9"/>
       <c r="W8" s="16">
-        <f>SUM(E8:V8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X8" s="9"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="29">
+      <c r="Z8" s="28">
         <v>20</v>
       </c>
-      <c r="AA8" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="31">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -2428,8 +2422,8 @@
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>45</v>
+      <c r="C9" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -2451,16 +2445,16 @@
       <c r="U9" s="10"/>
       <c r="V9" s="9"/>
       <c r="W9" s="16">
-        <f>SUM(E9:V9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="29">
+      <c r="Z9" s="28">
         <v>16</v>
       </c>
-      <c r="AA9" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA9" s="31">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2472,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -2494,16 +2488,16 @@
       <c r="U10" s="10"/>
       <c r="V10" s="9"/>
       <c r="W10" s="16">
-        <f>SUM(E10:V10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X10" s="9"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="29">
+      <c r="Z10" s="28">
         <v>12</v>
       </c>
-      <c r="AA10" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="31">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2514,8 +2508,8 @@
       <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>38</v>
+      <c r="C11" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -2537,16 +2531,16 @@
       <c r="U11" s="10"/>
       <c r="V11" s="9"/>
       <c r="W11" s="16">
-        <f>SUM(E11:V11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X11" s="9"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="29">
+      <c r="Z11" s="28">
         <v>8</v>
       </c>
-      <c r="AA11" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA11" s="31">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2580,16 +2574,16 @@
       <c r="U12" s="10"/>
       <c r="V12" s="9"/>
       <c r="W12" s="16">
-        <f>SUM(E12:V12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="10"/>
-      <c r="Z12" s="29">
+      <c r="Z12" s="28">
         <v>4</v>
       </c>
-      <c r="AA12" s="32">
-        <f t="shared" si="0"/>
+      <c r="AA12" s="31">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -2641,7 +2635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE36A288-516B-4432-B391-70192C2889F4}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2665,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -2678,16 +2674,16 @@
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>12</v>
@@ -2696,10 +2692,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>8</v>
@@ -2714,10 +2710,10 @@
         <v>11</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>6</v>
@@ -2741,10 +2737,10 @@
         <v>19</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
@@ -2780,10 +2776,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
@@ -2819,10 +2815,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -2858,10 +2854,10 @@
         <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
@@ -2891,16 +2887,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11">
         <v>17</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>69</v>
+      <c r="D6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -2935,11 +2931,11 @@
       <c r="C7" s="11">
         <v>21</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>68</v>
+      <c r="D7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
@@ -2975,10 +2971,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -3008,16 +3004,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9" s="11">
         <v>16</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
@@ -3052,11 +3048,11 @@
       <c r="C10" s="11">
         <v>19</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>71</v>
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
@@ -3091,11 +3087,11 @@
       <c r="C11" s="11">
         <v>21</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>72</v>
+      <c r="D11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
@@ -3131,10 +3127,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -3170,10 +3166,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
@@ -3203,16 +3199,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C14" s="11">
         <v>19</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>76</v>
+      <c r="D14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
@@ -3242,16 +3238,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="11">
         <v>19</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>77</v>
+      <c r="D15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -3286,11 +3282,11 @@
       <c r="C16" s="11">
         <v>18</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>75</v>
+      <c r="D16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
@@ -3325,11 +3321,11 @@
       <c r="C17" s="11">
         <v>17</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>99</v>
+      <c r="D17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
@@ -3365,10 +3361,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
@@ -3404,10 +3400,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
@@ -3437,16 +3433,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="11">
         <v>18</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>81</v>
+      <c r="D20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
@@ -3481,11 +3477,11 @@
       <c r="C21" s="11">
         <v>19</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>102</v>
+      <c r="D21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -3521,10 +3517,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
@@ -3560,10 +3556,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>

--- a/src/1998/1998.xlsx
+++ b/src/1998/1998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\CENG\Formula Python\src\1998\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3565D-75E5-4F6A-94EC-6214A95CCB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633CF534-916F-4615-BFFC-E9D377EE07ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,9 +277,6 @@
     <t>Sarvesh Sharaf</t>
   </si>
   <si>
-    <t>Red Bull Junior Racing</t>
-  </si>
-  <si>
     <t>Parmalat Brabham-Renault</t>
   </si>
   <si>
@@ -353,13 +350,16 @@
   </si>
   <si>
     <t>IMO</t>
+  </si>
+  <si>
+    <t>Trident Racing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +431,12 @@
       <b/>
       <sz val="7"/>
       <color rgb="FF006600"/>
+      <name val="Formula1 Display-Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FFFFCCFF"/>
       <name val="Formula1 Display-Regular"/>
     </font>
   </fonts>
@@ -565,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,9 +599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,9 +634,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,21 +664,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -733,11 +726,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF006600"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FF006600"/>
       <color rgb="FF990033"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFFF6600"/>
@@ -1039,17 +1032,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>88</v>
+      <c r="D1" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1061,65 +1054,65 @@
         <v>2</v>
       </c>
       <c r="H1" s="8"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="X1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="16" t="s">
+      <c r="AA1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="AD1" s="8"/>
@@ -1134,38 +1127,38 @@
       <c r="C2" s="10">
         <v>19</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>99</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
       <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1178,38 +1171,38 @@
       <c r="C3" s="10">
         <v>26</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>25</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
       <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,38 +1215,38 @@
       <c r="C4" s="10">
         <v>29</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="25"/>
+      <c r="F4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="23"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
       <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1266,38 +1259,38 @@
       <c r="C5" s="10">
         <v>28</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>33</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
       <c r="S5" s="8"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
       <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1310,38 +1303,38 @@
       <c r="C6" s="10">
         <v>34</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>20</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="23"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
       <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1354,38 +1347,38 @@
       <c r="C7" s="10">
         <v>34</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>19</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="25"/>
+      <c r="E7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="23"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
       <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,38 +1391,38 @@
       <c r="C8" s="10">
         <v>26</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>5</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1442,38 +1435,38 @@
       <c r="C9" s="10">
         <v>19</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
       <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1486,38 +1479,38 @@
       <c r="C10" s="10">
         <v>35</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>44</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
       <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1530,38 +1523,38 @@
       <c r="C11" s="10">
         <v>35</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>22</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="25"/>
+      <c r="F11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="23"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
       <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1574,38 +1567,38 @@
       <c r="C12" s="10">
         <v>19</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>10</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="8"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
       <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1618,38 +1611,38 @@
       <c r="C13" s="10">
         <v>19</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>24</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
       <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,38 +1655,38 @@
       <c r="C14" s="10">
         <v>31</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <v>3</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="8"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
       <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,38 +1699,38 @@
       <c r="C15" s="10">
         <v>31</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>17</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="8"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
       <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1750,38 +1743,38 @@
       <c r="C16" s="10">
         <v>31</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>4</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="8"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
       <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,38 +1787,38 @@
       <c r="C17" s="10">
         <v>29</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>27</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
       <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1838,38 +1831,38 @@
       <c r="C18" s="10">
         <v>29</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>6</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="25"/>
+      <c r="F18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="23"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
       <c r="S18" s="8"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
       <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1882,38 +1875,38 @@
       <c r="C19" s="10">
         <v>24</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>7</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
       <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1926,38 +1919,38 @@
       <c r="C20" s="10">
         <v>27</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>8</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
       <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1970,38 +1963,38 @@
       <c r="C21" s="10">
         <v>26</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>9</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
       <c r="S21" s="8"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
       <c r="AD21" s="8"/>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,38 +2007,38 @@
       <c r="C22" s="10">
         <v>23</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="27">
         <v>11</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="8"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
       <c r="AD22" s="8"/>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2058,38 +2051,38 @@
       <c r="C23" s="10">
         <v>26</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="27">
         <v>21</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
       <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="1:30" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,7 +2122,7 @@
     <sortCondition ref="E2:E24"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2169,65 +2162,65 @@
         <v>1</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="T1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="15" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="8"/>
@@ -2235,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="8"/>
     </row>
@@ -2246,37 +2239,37 @@
       <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>94</v>
+      <c r="C2" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
       <c r="Z2" s="8"/>
-      <c r="AA2" s="15">
-        <f>SUM(E2:W2)</f>
+      <c r="AA2" s="14">
+        <f t="shared" ref="AA2:AA12" si="0">SUM(E2:W2)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="30"/>
+      <c r="AB2" s="28"/>
       <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2286,37 +2279,37 @@
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
       <c r="Z3" s="8"/>
-      <c r="AA3" s="15">
-        <f>SUM(E3:W3)</f>
+      <c r="AA3" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="30"/>
+      <c r="AB3" s="28"/>
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2326,37 +2319,37 @@
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>85</v>
+      <c r="C4" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="15">
-        <f>SUM(E4:W4)</f>
+      <c r="AA4" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="30"/>
+      <c r="AB4" s="28"/>
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,37 +2359,37 @@
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="15">
-        <f>SUM(E5:W5)</f>
+      <c r="AA5" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="30"/>
+      <c r="AB5" s="28"/>
       <c r="AC5" s="8"/>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2406,37 +2399,37 @@
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="15">
-        <f>SUM(E6:W6)</f>
+      <c r="AA6" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="30"/>
+      <c r="AB6" s="28"/>
       <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,37 +2439,37 @@
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="15">
-        <f>SUM(E7:W7)</f>
+      <c r="AA7" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="30"/>
+      <c r="AB7" s="28"/>
       <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2486,37 +2479,37 @@
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>80</v>
+      <c r="C8" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="15">
-        <f>SUM(E8:W8)</f>
+      <c r="AA8" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="30"/>
+      <c r="AB8" s="28"/>
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,37 +2519,37 @@
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="15">
-        <f>SUM(E9:W9)</f>
+      <c r="AA9" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="30"/>
+      <c r="AB9" s="28"/>
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2566,37 +2559,37 @@
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="15">
-        <f>SUM(E10:W10)</f>
+      <c r="AA10" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="30"/>
+      <c r="AB10" s="28"/>
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2606,37 +2599,37 @@
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="15">
-        <f>SUM(E11:W11)</f>
+      <c r="AA11" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="30"/>
+      <c r="AB11" s="28"/>
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -2646,37 +2639,37 @@
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>93</v>
+      <c r="C12" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="15">
-        <f>SUM(E12:W12)</f>
+      <c r="AA12" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="30"/>
+      <c r="AB12" s="28"/>
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2715,7 +2708,7 @@
     <sortCondition ref="C2:C13"/>
   </sortState>
   <conditionalFormatting sqref="E1:Y1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2742,17 +2735,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>88</v>
+      <c r="D1" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -2764,16 +2757,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="8"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2786,27 +2779,27 @@
       <c r="C2" s="10">
         <v>19</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2819,27 +2812,27 @@
       <c r="C3" s="10">
         <v>23</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2852,27 +2845,27 @@
       <c r="C4" s="10">
         <v>26</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,27 +2878,27 @@
       <c r="C5" s="10">
         <v>27</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2918,27 +2911,27 @@
       <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2951,27 +2944,27 @@
       <c r="C7" s="10">
         <v>21</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>6</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>86</v>
+      <c r="F7" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2984,27 +2977,27 @@
       <c r="C8" s="10">
         <v>23</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>7</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>90</v>
+      <c r="F8" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3017,27 +3010,27 @@
       <c r="C9" s="10">
         <v>16</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>8</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3050,27 +3043,27 @@
       <c r="C10" s="10">
         <v>19</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3083,27 +3076,27 @@
       <c r="C11" s="10">
         <v>21</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>10</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3116,27 +3109,27 @@
       <c r="C12" s="10">
         <v>19</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>11</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>87</v>
+      <c r="F12" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3149,27 +3142,27 @@
       <c r="C13" s="10">
         <v>23</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>12</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3182,27 +3175,27 @@
       <c r="C14" s="10">
         <v>19</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>13</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3215,27 +3208,27 @@
       <c r="C15" s="10">
         <v>19</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>14</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3248,27 +3241,27 @@
       <c r="C16" s="10">
         <v>18</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="32">
         <v>15</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="32" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3281,27 +3274,27 @@
       <c r="C17" s="10">
         <v>17</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="32">
         <v>16</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>89</v>
+      <c r="F17" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3314,27 +3307,27 @@
       <c r="C18" s="10">
         <v>18</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="25">
         <v>17</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3347,27 +3340,27 @@
       <c r="C19" s="10">
         <v>24</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="25">
         <v>18</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>73</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3380,27 +3373,27 @@
       <c r="C20" s="10">
         <v>18</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>19</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3413,27 +3406,27 @@
       <c r="C21" s="10">
         <v>19</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>20</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>74</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3446,27 +3439,27 @@
       <c r="C22" s="10">
         <v>16</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>21</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3479,27 +3472,27 @@
       <c r="C23" s="10">
         <v>16</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>22</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -3528,13 +3521,13 @@
     <sortCondition ref="D2:D24"/>
   </sortState>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:S1">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/1998/1998.xlsx
+++ b/src/1998/1998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\CENG\Formula Python\src\1998\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633CF534-916F-4615-BFFC-E9D377EE07ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8242CE1D-9AED-44D1-B05C-11A61DF5767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
